--- a/public/template/pembayaranspp_template.xlsx
+++ b/public/template/pembayaranspp_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\HATOY\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91A6F42-84DD-40D5-B5DE-CA9767802A5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDAB636-E0A2-4802-95ED-DFD4ECD232C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>nis</t>
   </si>
@@ -46,6 +46,18 @@
   </si>
   <si>
     <t>SPP</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>diskon</t>
+  </si>
+  <si>
+    <t>Tunai</t>
+  </si>
+  <si>
+    <t>Transfer</t>
   </si>
 </sst>
 </file>
@@ -69,18 +81,9 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -115,8 +118,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -457,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,23 +494,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="1"/>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -526,23 +533,27 @@
       <c r="W1" s="1"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="4">
         <v>3121031001</v>
       </c>
-      <c r="B2" s="6">
-        <v>6</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="B2" s="4">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4">
         <v>2021</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="4">
         <v>40000</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="2"/>
+      <c r="G2" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -560,6 +571,29 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
     </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>3121031001</v>
+      </c>
+      <c r="B3" s="4">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2021</v>
+      </c>
+      <c r="D3" s="4">
+        <v>40000</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
